--- a/OptForce_bdoh/OutputsFindMustLL/MustLL.xlsx
+++ b/OptForce_bdoh/OutputsFindMustLL/MustLL.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>METHENYLTHFCYCLOHYDRO-RXN</t>
+    <t>RXN-11811</t>
   </si>
   <si>
-    <t>METHYLENETHFDEHYDROG-NADP-RXN</t>
+    <t>acetaldehyde_oxidoreductase</t>
   </si>
   <si>
     <t>atp_synthase</t>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>carbon_dioxide_tx</t>
-  </si>
-  <si>
-    <t>nfn</t>
   </si>
   <si>
     <t>rnf</t>
@@ -113,11 +110,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
